--- a/WebRobots4School/统计.xlsx
+++ b/WebRobots4School/统计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Coventry</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,37 @@
   </si>
   <si>
     <t>http://www2.warwick.ac.uk/study/postgraduate/courses/coursea2z</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birmingham</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sheffield.ac.uk/postgraduate/taught/courses/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sheffield.ac.uk/prospectus/courseCategory.do;jsessionid=D1D1E82F3D594079672DFBB1E5F20601.tcs-live-node-01?category=azlist</t>
+  </si>
+  <si>
+    <t>http://www.bangor.ac.uk/courses/postgraduate/</t>
+  </si>
+  <si>
+    <t>http://www.bangor.ac.uk/courses/undergraduate</t>
+  </si>
+  <si>
+    <t>http://www.birmingham.ac.uk/postgraduate/courses/taught/listing.aspx?CourseListingAtoZ_goto=</t>
+  </si>
+  <si>
+    <t>http://www.birmingham.ac.uk/undergraduate/courses/search.aspx?CurrentTab=AtoZ&amp;AtoZFilter=Undergraduate&amp;CourseComplete_AtoZ_AtoZLetter=A&amp;CourseComplete_atozlisting_goto=1</t>
   </si>
 </sst>
 </file>
@@ -396,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -466,6 +497,96 @@
       </c>
       <c r="C7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>362</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>315</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>467</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>170</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>463</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>404</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/WebRobots4School/统计.xlsx
+++ b/WebRobots4School/统计.xlsx
@@ -430,7 +430,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>190</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
